--- a/code/java-web-demo/src/test/resources/挖掘机_20170612.xlsx
+++ b/code/java-web-demo/src/test/resources/挖掘机_20170612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="现金账" sheetId="29" r:id="rId1"/>
@@ -482,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步行街工地下欠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄油（件）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +527,10 @@
   </si>
   <si>
     <t>修理驱动购汽油1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行街工地下欠（截止20170531）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
@@ -3073,7 +3073,7 @@
         <v>33</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="1"/>
@@ -3105,7 +3105,7 @@
         <v>33</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G67" s="10">
         <f t="shared" si="1"/>
@@ -3137,7 +3137,7 @@
         <v>33</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="1"/>
@@ -3169,7 +3169,7 @@
         <v>33</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="1"/>
@@ -3201,7 +3201,7 @@
         <v>33</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" si="1"/>
@@ -3233,7 +3233,7 @@
         <v>33</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="1"/>
@@ -3905,7 +3905,7 @@
         <v>33</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G92" s="10">
         <f t="shared" si="10"/>
@@ -3969,7 +3969,7 @@
         <v>33</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G94" s="10">
         <f t="shared" si="10"/>
@@ -4033,7 +4033,7 @@
         <v>33</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G96" s="10">
         <f t="shared" si="10"/>
@@ -4097,7 +4097,7 @@
         <v>33</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G98" s="10">
         <f t="shared" si="10"/>
@@ -4129,7 +4129,7 @@
         <v>33</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G99" s="10">
         <f t="shared" si="10"/>
@@ -4161,7 +4161,7 @@
         <v>33</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G100" s="10">
         <f t="shared" si="10"/>
@@ -5790,7 +5790,7 @@
         <v>33</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="1"/>
@@ -5822,7 +5822,7 @@
         <v>33</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="1"/>
@@ -5854,7 +5854,7 @@
         <v>33</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G52" s="10">
         <f t="shared" si="1"/>
@@ -5886,7 +5886,7 @@
         <v>33</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="1"/>
@@ -5918,7 +5918,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="1"/>
@@ -5950,7 +5950,7 @@
         <v>33</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G55" s="10">
         <f t="shared" si="1"/>
@@ -6270,7 +6270,7 @@
         <v>33</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="1"/>
@@ -6334,7 +6334,7 @@
         <v>33</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G67" s="10">
         <f t="shared" si="1"/>
@@ -6366,7 +6366,7 @@
         <v>33</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="1"/>
@@ -6430,7 +6430,7 @@
         <v>33</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" ref="G70:G72" si="10">G69+C70</f>
@@ -6462,7 +6462,7 @@
         <v>33</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="10"/>
@@ -6494,7 +6494,7 @@
         <v>33</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="10"/>
@@ -9913,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9922,7 +9922,7 @@
     <col min="1" max="1" width="12.5" style="15" customWidth="1"/>
     <col min="2" max="3" width="8.5" style="2" customWidth="1"/>
     <col min="4" max="5" width="9.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
@@ -10143,7 +10143,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>

--- a/code/java-web-demo/src/test/resources/挖掘机_20170612.xlsx
+++ b/code/java-web-demo/src/test/resources/挖掘机_20170612.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="129">
   <si>
     <t>装车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,6 +531,10 @@
   </si>
   <si>
     <t>步行街工地下欠（截止20170531）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修保养</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9914,7 +9918,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10074,7 +10078,7 @@
         <v>7000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
@@ -10106,7 +10110,7 @@
         <v>3000</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>33</v>
@@ -10169,7 +10173,7 @@
         <v>5050</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>

--- a/code/java-web-demo/src/test/resources/挖掘机_20170612.xlsx
+++ b/code/java-web-demo/src/test/resources/挖掘机_20170612.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="现金账" sheetId="29" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
@@ -4192,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
@@ -9193,8 +9193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9622,7 +9622,10 @@
         <v>35</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="6">
+        <f>(B11+B13+B14)/(B11+B13+B14+C10+C12)</f>
+        <v>0.54180763653939101</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -9684,7 +9687,10 @@
         <v>2900</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <f>(B16+B17)/(B16+B17+C15)</f>
+        <v>0.60544217687074831</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
@@ -9917,7 +9923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
